--- a/caso 3/caso3_excel.xlsx
+++ b/caso 3/caso3_excel.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anio1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anio2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anio3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anio4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Anio5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Anio1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Anio2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Anio3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Anio4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Anio5" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -714,7 +714,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
@@ -1834,13 +1834,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C32:K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="inlineStr">
@@ -3048,138 +3048,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CF1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CF2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CF3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CF4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CF5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -3193,13 +3061,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C40" sqref="C33:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="inlineStr">
@@ -4407,138 +4275,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CF1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CF2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CF3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CF4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CF5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -4552,13 +4288,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D32:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="inlineStr">
@@ -5766,138 +5502,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CF1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CF2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CF3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CF4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CF5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -5911,13 +5515,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C32:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="inlineStr">
@@ -7125,138 +6729,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CF1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CF2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CF3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CF4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CF5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0</v>
       </c>
     </row>
   </sheetData>
@@ -7273,10 +6745,10 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="D40" sqref="D32:J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1">
       <c r="D1" t="inlineStr">
@@ -8484,138 +7956,6 @@
       </c>
       <c r="I30" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>S10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>CF1</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>CF2</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>CF3</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>CF4</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>CF5</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="n">
-        <v>5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0</v>
       </c>
     </row>
     <row r="40">
